--- a/SD/FormDesign.xlsx
+++ b/SD/FormDesign.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nana\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nana\SE_2024_fall\git\ratingForm\SD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FC6D4B-D4A0-4CE1-A7E6-32827D40B86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644C81E7-482A-4416-92F1-387DD4D5E340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B524B075-65A8-4B41-B81D-ADC7B61B9386}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="65">
   <si>
     <t>時間戳記</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,10 +201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已進行第二次計算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Model: 日間部成績</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,6 +270,24 @@
   </si>
   <si>
     <t>xxxxxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第幾次計算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024/1/1  09:00:00 AM</t>
+  </si>
+  <si>
+    <t>2024/1/1  09:00:00 AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時間戳記</t>
+  </si>
+  <si>
+    <t>成績</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -728,16 +743,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -952,6 +964,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1294,10 +1315,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E5008D-195E-6E41-9403-DEB5B043E7BA}">
+  <sheetPr codeName="工作表1"/>
   <dimension ref="B1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -1312,214 +1334,219 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1">
-      <c r="B1" s="68" t="s">
-        <v>47</v>
+      <c r="B1" s="67" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="2:12">
-      <c r="B2" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="B2" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="2:12" ht="17.25" thickBot="1">
+      <c r="B4" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="16"/>
-    </row>
-    <row r="4" spans="2:12" ht="17.25" thickBot="1">
-      <c r="B4" s="74" t="s">
+      <c r="C4" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="2:12" s="69" customFormat="1">
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+    </row>
+    <row r="6" spans="2:12" ht="17.25" thickBot="1">
+      <c r="B6" s="59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-    </row>
-    <row r="5" spans="2:12" s="70" customFormat="1">
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-    </row>
-    <row r="6" spans="2:12" ht="17.25" thickBot="1">
-      <c r="B6" s="60" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="32" t="s">
+      <c r="D9" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="17.25" thickBot="1">
+      <c r="B12" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" s="15" customFormat="1" ht="17.25" thickBot="1">
+      <c r="D13" s="27"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="34">
         <v>1</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B17" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="38">
         <v>2</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="17.25" thickBot="1">
-      <c r="B12" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" s="16" customFormat="1" ht="17.25" thickBot="1">
-      <c r="D13" s="28"/>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B17" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" s="70" customFormat="1"/>
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" spans="2:6" s="69" customFormat="1"/>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1530,11 +1557,11 @@
       <c r="C22" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>36</v>
+      <c r="D22" s="74" t="s">
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -1544,29 +1571,29 @@
       <c r="C23" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>36</v>
+      <c r="D23" s="74" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1577,13 +1604,13 @@
       <c r="C27" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E27" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1594,13 +1621,13 @@
       <c r="C28" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1611,13 +1638,13 @@
       <c r="C29" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E29" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1628,233 +1655,229 @@
       <c r="C30" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E30" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="2:6" s="70" customFormat="1">
-      <c r="D31" s="72"/>
+    <row r="31" spans="2:6" s="69" customFormat="1">
+      <c r="D31" s="71"/>
     </row>
     <row r="32" spans="2:6" ht="15.95" customHeight="1" thickBot="1">
       <c r="B32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="2:13" ht="12.95" customHeight="1">
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="9"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="8"/>
     </row>
     <row r="34" spans="2:13">
-      <c r="B34" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="11" t="s">
+      <c r="B34" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="H34" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="I34" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="12" t="s">
+      <c r="J34" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="K34" s="12" t="s">
+      <c r="K34" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L34" s="12" t="s">
+      <c r="L34" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M34" s="13" t="s">
-        <v>42</v>
+      <c r="M34" s="12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="15" t="s">
+      <c r="B35" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="70">
         <v>1</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="15">
         <v>90</v>
       </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="20" t="b">
-        <v>0</v>
-      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="19"/>
     </row>
     <row r="36" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B36" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="22" t="s">
+      <c r="B36" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="75">
         <v>1</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="23">
+      <c r="G36" s="22">
         <v>80</v>
       </c>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" s="70" customFormat="1"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="26"/>
+    </row>
+    <row r="37" spans="2:13" s="69" customFormat="1"/>
     <row r="38" spans="2:13" ht="17.25" thickBot="1">
       <c r="B38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="2:13">
-      <c r="B39" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="45"/>
+      <c r="B39" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="44"/>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="47" t="s">
+      <c r="E40" s="46" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="19">
+      <c r="C41" s="18">
         <v>88.99</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D41" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="50">
+      <c r="E41" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="52">
+      <c r="C42" s="51">
         <v>87.24</v>
       </c>
-      <c r="D42" s="53" t="s">
+      <c r="D42" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="E42" s="54">
+      <c r="E42" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:13" ht="17.25" thickBot="1"/>
     <row r="44" spans="2:13">
-      <c r="B44" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="44"/>
-      <c r="D44" s="45"/>
+      <c r="B44" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="43"/>
+      <c r="D44" s="44"/>
     </row>
     <row r="45" spans="2:13">
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="47" t="s">
+      <c r="D45" s="46" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="46" spans="2:13">
-      <c r="B46" s="55" t="s">
+      <c r="B46" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="17">
         <v>86</v>
       </c>
-      <c r="D46" s="56" t="s">
+      <c r="D46" s="55" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="47" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B47" s="57" t="s">
+      <c r="B47" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="58">
+      <c r="C47" s="57">
         <v>93</v>
       </c>
-      <c r="D47" s="59" t="s">
+      <c r="D47" s="58" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="2:13" s="70" customFormat="1"/>
+    <row r="48" spans="2:13" s="69" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1868,6 +1891,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02C371B-084D-5D41-8CD7-1152E0200037}">
+  <sheetPr codeName="工作表2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/SD/FormDesign.xlsx
+++ b/SD/FormDesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nana\SE_2024_fall\git\ratingForm\SD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644C81E7-482A-4416-92F1-387DD4D5E340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B87EB7-36FE-4A0F-A70D-1BE5E5F0CDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B524B075-65A8-4B41-B81D-ADC7B61B9386}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,258 +35,322 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="82">
+  <si>
+    <t>學號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電子郵件地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>標準差</t>
+  </si>
+  <si>
+    <t>z-score</t>
+  </si>
+  <si>
+    <t>被評分同學之平均</t>
+  </si>
+  <si>
+    <t>評分同學得分</t>
+  </si>
+  <si>
+    <t>是否為outlier</t>
+  </si>
+  <si>
+    <t>s001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分數1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分數2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>評分者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被評分者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table: 總修課學生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班別(在職/日間)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在職</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>week2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>報告者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>順序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表單 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model: 日間部成績</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model: 在職班成績</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>助教輸入DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table: 表單暫存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫存log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>來自前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要計算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Output -&gt; CSV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024/9/18  2:55:29 AM, 113522010, nana, gmail, A, B, …, C, null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log (JSON)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113522010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxxxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第幾次計算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024/1/1  09:00:00 AM</t>
+  </si>
+  <si>
+    <t>2024/1/1  09:00:00 AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>時間戳記</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>學號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電子郵件地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table: Review</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>標準差</t>
-  </si>
-  <si>
-    <t>z-score</t>
-  </si>
-  <si>
-    <t>被評分同學之平均</t>
-  </si>
-  <si>
-    <t>評分同學得分</t>
-  </si>
-  <si>
-    <t>是否為outlier</t>
+  </si>
+  <si>
+    <t>成績</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>報告順序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>評分者姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>評分者信箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx@gmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ooo@gmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model: FormResponse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>s001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>s002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分數1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分數2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>評分者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被評分者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table: 表單</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table: 評分表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table: 總修課學生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班別(在職/日間)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在職</t>
+  </si>
+  <si>
+    <t>評分時間戳記</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scoreList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["A",  "B", …, "C"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["B",  "B", …, "A"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>後端已建立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table: ReviewEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table: FormEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table: PresenterEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>報告周次</t>
+  </si>
+  <si>
+    <t>報告周次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>week2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table: 週次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>week</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>報告者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>順序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表單 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Model: 日間部成績</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Model: 在職班成績</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>助教輸入DB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table: 表單暫存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暫存log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>來自前端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要計算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Output -&gt; CSV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024/9/18  2:55:29 AM, 113522010, nana, gmail, A, B, …, C, null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Log (JSON)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>113522010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nana</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxxxxxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第幾次計算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024/1/1  09:00:00 AM</t>
-  </si>
-  <si>
-    <t>2024/1/1  09:00:00 AM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時間戳記</t>
-  </si>
-  <si>
-    <t>成績</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table: GradeEntity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +358,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -343,8 +406,17 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,8 +477,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -734,6 +818,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -743,7 +853,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -759,9 +869,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -816,9 +923,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -861,12 +965,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -888,9 +986,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -900,27 +995,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -973,6 +1059,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -996,6 +1121,60 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>591138</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19B7C392-045F-4384-90C4-83C7CFDA7EDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="5291" b="25645"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11325225" y="1866900"/>
+          <a:ext cx="5267913" cy="4848225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1316,576 +1495,713 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E5008D-195E-6E41-9403-DEB5B043E7BA}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="B1:M48"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="5" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
     <col min="7" max="7" width="12.875" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="17.25" thickBot="1">
-      <c r="B1" s="67" t="s">
+    <row r="1" spans="1:12" ht="17.25" thickBot="1">
+      <c r="B1" s="59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="B3" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" spans="1:12" ht="17.25" thickBot="1">
+      <c r="B4" s="65" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="2:12">
-      <c r="B2" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="63" t="s">
+      <c r="C4" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:12" s="61" customFormat="1">
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+    </row>
+    <row r="6" spans="1:12" ht="17.25" thickBot="1">
+      <c r="B6" s="51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="D8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="15"/>
-    </row>
-    <row r="4" spans="2:12" ht="17.25" thickBot="1">
-      <c r="B4" s="73" t="s">
+      <c r="D11" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17.25" thickBot="1">
+      <c r="B12" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="D12" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="14" customFormat="1" ht="17.25" thickBot="1">
+      <c r="D13" s="25"/>
+      <c r="I13" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="14">
+        <v>1</v>
+      </c>
+      <c r="E16" s="74"/>
+      <c r="F16" s="31"/>
+    </row>
+    <row r="17" spans="1:8" ht="17.25" thickBot="1">
+      <c r="B17" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="34">
+        <v>2</v>
+      </c>
+      <c r="E17" s="75"/>
+    </row>
+    <row r="18" spans="1:8" s="61" customFormat="1"/>
+    <row r="19" spans="1:8">
+      <c r="A19" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="81" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-    </row>
-    <row r="5" spans="2:12" s="69" customFormat="1">
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-    </row>
-    <row r="6" spans="2:12" ht="17.25" thickBot="1">
-      <c r="B6" s="59" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="31" t="s">
+      <c r="D22" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="71"/>
+      <c r="G22" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="81" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="81" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="81" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="71" customFormat="1">
+      <c r="D28" s="72"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="71">
         <v>1</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="F31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="71">
         <v>2</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="F32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="71">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="71">
+        <v>2</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+    </row>
+    <row r="35" spans="1:13" s="61" customFormat="1">
+      <c r="D35" s="63"/>
+    </row>
+    <row r="36" spans="1:13" ht="15.95" customHeight="1" thickBot="1">
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="7"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="B38" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="B39" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="62">
+        <v>1</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="14">
+        <v>90</v>
+      </c>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="18"/>
+    </row>
+    <row r="40" spans="1:13" ht="17.25" thickBot="1">
+      <c r="B40" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="67">
+        <v>1</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="21">
+        <v>80</v>
+      </c>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="24"/>
+    </row>
+    <row r="41" spans="1:13" s="61" customFormat="1"/>
+    <row r="42" spans="1:13" ht="17.25" thickBot="1">
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="B43" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="40"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="B44" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="34" t="s">
+      <c r="D44" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" s="42" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="17.25" thickBot="1">
-      <c r="B12" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" s="15" customFormat="1" ht="17.25" thickBot="1">
-      <c r="D13" s="27"/>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="28" t="s">
+    <row r="45" spans="1:13">
+      <c r="B45" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="17">
+        <v>88.99</v>
+      </c>
+      <c r="D45" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="17.25" thickBot="1">
+      <c r="B46" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="46">
+        <v>87.24</v>
+      </c>
+      <c r="D46" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="17.25" thickBot="1"/>
+    <row r="48" spans="1:13">
+      <c r="B48" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="34">
-        <v>1</v>
-      </c>
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B17" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="38">
-        <v>2</v>
-      </c>
-      <c r="E17" s="24"/>
-    </row>
-    <row r="18" spans="2:6" s="69" customFormat="1"/>
-    <row r="19" spans="2:6">
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="C48" s="39"/>
+      <c r="D48" s="40"/>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="74" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" s="69" customFormat="1">
-      <c r="D31" s="71"/>
-    </row>
-    <row r="32" spans="2:6" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B32" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="2:13" ht="12.95" customHeight="1">
-      <c r="B33" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="8"/>
-    </row>
-    <row r="34" spans="2:13">
-      <c r="B34" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" s="10" t="s">
+      <c r="C49" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="C50" s="16">
+        <v>86</v>
+      </c>
+      <c r="D50" s="81" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="17.25" thickBot="1">
+      <c r="B51" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L34" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M34" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13">
-      <c r="B35" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="70">
-        <v>1</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="15">
-        <v>90</v>
-      </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="19"/>
-    </row>
-    <row r="36" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B36" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="75">
-        <v>1</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="22">
-        <v>80</v>
-      </c>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="26"/>
-    </row>
-    <row r="37" spans="2:13" s="69" customFormat="1"/>
-    <row r="38" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13">
-      <c r="B39" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="44"/>
-    </row>
-    <row r="40" spans="2:13">
-      <c r="B40" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="46" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13">
-      <c r="B41" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" s="18">
-        <v>88.99</v>
-      </c>
-      <c r="D41" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B42" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="51">
-        <v>87.24</v>
-      </c>
-      <c r="D42" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="E42" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" ht="17.25" thickBot="1"/>
-    <row r="44" spans="2:13">
-      <c r="B44" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="43"/>
-      <c r="D44" s="44"/>
-    </row>
-    <row r="45" spans="2:13">
-      <c r="B45" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="46" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13">
-      <c r="B46" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="17">
-        <v>86</v>
-      </c>
-      <c r="D46" s="55" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B47" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" s="57">
+      <c r="C51" s="50">
         <v>93</v>
       </c>
-      <c r="D47" s="58" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" s="69" customFormat="1"/>
+      <c r="D51" s="81" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" s="61" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D9" r:id="rId1" xr:uid="{50A1BB5F-741E-AA42-991C-731854855B86}"/>
     <hyperlink ref="D10" r:id="rId2" xr:uid="{C01AE86F-D73C-9F4C-B7B8-5FA80445DB3E}"/>
+    <hyperlink ref="E26" r:id="rId3" xr:uid="{E1D17CF0-C9DF-4582-B5D7-311279FF79CC}"/>
+    <hyperlink ref="E27" r:id="rId4" xr:uid="{A9F37BA5-1C09-4282-80DA-4BB25919CF35}"/>
+    <hyperlink ref="D21" r:id="rId5" xr:uid="{5EFBF140-85EA-44D8-AB66-8559CC8F9FA6}"/>
+    <hyperlink ref="D22" r:id="rId6" xr:uid="{2956C5A9-C70B-4ED2-B816-21B2CDC2D1D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/SD/FormDesign.xlsx
+++ b/SD/FormDesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nana\SE_2024_fall\git\ratingForm\SD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B87EB7-36FE-4A0F-A70D-1BE5E5F0CDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE230CFD-83CA-4028-A4FC-45C906B97E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B524B075-65A8-4B41-B81D-ADC7B61B9386}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="90">
   <si>
     <t>學號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,10 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Table: 總修課學生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>班別(在職/日間)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -351,6 +347,42 @@
   </si>
   <si>
     <t>Table: GradeEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table: ReviewerEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>報告週次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gradeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[90, 88.2, …, 94.13]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[90, 93.76, …, 94.13]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table: StudentEntity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -853,7 +885,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1091,13 +1123,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1495,10 +1533,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E5008D-195E-6E41-9403-DEB5B043E7BA}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -1514,14 +1552,14 @@
     <col min="12" max="13" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" thickBot="1">
+    <row r="1" spans="2:12" ht="17.25" thickBot="1">
       <c r="B1" s="59" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12">
       <c r="B2" s="52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
@@ -1534,12 +1572,12 @@
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="2:12">
       <c r="B3" s="55" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="60"/>
       <c r="E3" s="60"/>
@@ -1551,12 +1589,12 @@
       <c r="K3" s="60"/>
       <c r="L3" s="14"/>
     </row>
-    <row r="4" spans="1:12" ht="17.25" thickBot="1">
+    <row r="4" spans="2:12" ht="17.25" thickBot="1">
       <c r="B4" s="65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="57"/>
       <c r="E4" s="57"/>
@@ -1568,27 +1606,27 @@
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
     </row>
-    <row r="5" spans="1:12" s="61" customFormat="1">
+    <row r="5" spans="2:12" s="61" customFormat="1">
       <c r="H5" s="62"/>
       <c r="I5" s="62"/>
       <c r="J5" s="62"/>
       <c r="K5" s="62"/>
       <c r="L5" s="62"/>
     </row>
-    <row r="6" spans="1:12" ht="17.25" thickBot="1">
+    <row r="6" spans="2:12" ht="17.25" thickBot="1">
       <c r="B6" s="51" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
       <c r="B7" s="26" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="28"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="2:12">
       <c r="B8" s="29" t="s">
         <v>0</v>
       </c>
@@ -1599,563 +1637,576 @@
         <v>2</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
       <c r="B9" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>48</v>
-      </c>
       <c r="E9" s="32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
       <c r="B10" s="31" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
       <c r="B11" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="17.25" thickBot="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="17.25" thickBot="1">
       <c r="B12" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="60" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" s="14" customFormat="1" ht="17.25" thickBot="1">
-      <c r="D13" s="25"/>
-      <c r="I13" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="76" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="B15" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="D16" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="B17" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="72" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="14" customFormat="1" ht="17.25" thickBot="1">
+      <c r="D18" s="25"/>
+      <c r="I18" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="28"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="B20" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="B16" s="79" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="13" t="s">
+      <c r="F20" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="B21" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="14">
+      <c r="E21" s="14">
         <v>1</v>
       </c>
-      <c r="E16" s="74"/>
-      <c r="F16" s="31"/>
-    </row>
-    <row r="17" spans="1:8" ht="17.25" thickBot="1">
-      <c r="B17" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="37" t="s">
+      <c r="F21" s="74"/>
+    </row>
+    <row r="22" spans="1:9" ht="17.25" thickBot="1">
+      <c r="B22" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="34">
+      <c r="E22" s="34">
         <v>2</v>
       </c>
-      <c r="E17" s="75"/>
-    </row>
-    <row r="18" spans="1:8" s="61" customFormat="1"/>
-    <row r="19" spans="1:8">
-      <c r="A19" s="76" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="77" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="B20" s="2" t="s">
+      <c r="F22" s="75"/>
+    </row>
+    <row r="23" spans="1:9" s="61" customFormat="1"/>
+    <row r="24" spans="1:9">
+      <c r="A24" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="77" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="B21" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="73" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="81" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="B22" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="71"/>
-      <c r="G22" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="81" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="76" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="B25" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="B26" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="66" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="B26" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="73" t="s">
+      <c r="E26" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="79" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="F26" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" s="81" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="B27" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="73" t="s">
-        <v>64</v>
-      </c>
+      <c r="E27" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="71"/>
       <c r="G27" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="81" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="71" customFormat="1">
-      <c r="D28" s="72"/>
-    </row>
-    <row r="29" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="H27" s="79" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="B30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="79" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="79" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="71" customFormat="1">
+      <c r="D33" s="72"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="B35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="E35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="B31" t="s">
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="B36" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C36" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D36" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="71">
+      <c r="E36" s="71">
         <v>1</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="B32" t="s">
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="B37" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="70" t="s">
+      <c r="C37" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D37" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="71">
+      <c r="E37" s="71">
         <v>2</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="B33" t="s">
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="B38" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="70" t="s">
+      <c r="C38" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D38" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="71">
+      <c r="E38" s="71">
         <v>1</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="B34" t="s">
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="B39" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="70" t="s">
+      <c r="C39" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D39" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="71">
+      <c r="E39" s="71">
         <v>2</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-    </row>
-    <row r="35" spans="1:13" s="61" customFormat="1">
-      <c r="D35" s="63"/>
-    </row>
-    <row r="36" spans="1:13" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B36" t="s">
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+    </row>
+    <row r="40" spans="1:13" s="61" customFormat="1">
+      <c r="D40" s="63"/>
+    </row>
+    <row r="41" spans="1:13" ht="15.95" customHeight="1" thickBot="1">
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="7"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="B43" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="B44" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="62">
+        <v>1</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="14">
+        <v>90</v>
+      </c>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="18"/>
+    </row>
+    <row r="45" spans="1:13" ht="17.25" thickBot="1">
+      <c r="B45" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="67">
+        <v>1</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="21">
+        <v>80</v>
+      </c>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="24"/>
+    </row>
+    <row r="46" spans="1:13" s="61" customFormat="1"/>
+    <row r="47" spans="1:13" ht="17.25" thickBot="1">
+      <c r="B47" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="76" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="7"/>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="B38" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J38" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L38" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M38" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="B39" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="62">
-        <v>1</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G39" s="14">
-        <v>90</v>
-      </c>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="18"/>
-    </row>
-    <row r="40" spans="1:13" ht="17.25" thickBot="1">
-      <c r="B40" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="67">
-        <v>1</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="21">
-        <v>80</v>
-      </c>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="24"/>
-    </row>
-    <row r="41" spans="1:13" s="61" customFormat="1"/>
-    <row r="42" spans="1:13" ht="17.25" thickBot="1">
-      <c r="B42" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="B43" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="40"/>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="B44" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" s="42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="B45" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="17">
-        <v>88.99</v>
-      </c>
-      <c r="D45" s="81" t="s">
-        <v>79</v>
-      </c>
-      <c r="E45" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="17.25" thickBot="1">
-      <c r="B46" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" s="46">
-        <v>87.24</v>
-      </c>
-      <c r="D46" s="81" t="s">
-        <v>79</v>
-      </c>
-      <c r="E46" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="17.25" thickBot="1"/>
+    </row>
     <row r="48" spans="1:13">
       <c r="B48" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C48" s="39"/>
-      <c r="D48" s="40"/>
-    </row>
-    <row r="49" spans="2:4">
+      <c r="D48" s="39"/>
+      <c r="E48" s="40"/>
+    </row>
+    <row r="49" spans="2:5">
       <c r="B49" s="41" t="s">
         <v>0</v>
       </c>
@@ -2163,41 +2214,91 @@
         <v>3</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" s="42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="17">
+        <v>88.99</v>
+      </c>
+      <c r="D50" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="17.25" thickBot="1">
+      <c r="B51" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="46">
+        <v>87.24</v>
+      </c>
+      <c r="D51" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="17.25" thickBot="1"/>
+    <row r="53" spans="2:5">
+      <c r="B53" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="39"/>
+      <c r="D53" s="40"/>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C55" s="16">
         <v>86</v>
       </c>
-      <c r="D50" s="81" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" ht="17.25" thickBot="1">
-      <c r="B51" s="49" t="s">
+      <c r="D55" s="79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="17.25" thickBot="1">
+      <c r="B56" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="50">
+      <c r="C56" s="50">
         <v>93</v>
       </c>
-      <c r="D51" s="81" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" s="61" customFormat="1"/>
+      <c r="D56" s="79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" s="61" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D9" r:id="rId1" xr:uid="{50A1BB5F-741E-AA42-991C-731854855B86}"/>
     <hyperlink ref="D10" r:id="rId2" xr:uid="{C01AE86F-D73C-9F4C-B7B8-5FA80445DB3E}"/>
-    <hyperlink ref="E26" r:id="rId3" xr:uid="{E1D17CF0-C9DF-4582-B5D7-311279FF79CC}"/>
-    <hyperlink ref="E27" r:id="rId4" xr:uid="{A9F37BA5-1C09-4282-80DA-4BB25919CF35}"/>
-    <hyperlink ref="D21" r:id="rId5" xr:uid="{5EFBF140-85EA-44D8-AB66-8559CC8F9FA6}"/>
-    <hyperlink ref="D22" r:id="rId6" xr:uid="{2956C5A9-C70B-4ED2-B816-21B2CDC2D1D7}"/>
+    <hyperlink ref="E31" r:id="rId3" xr:uid="{E1D17CF0-C9DF-4582-B5D7-311279FF79CC}"/>
+    <hyperlink ref="E32" r:id="rId4" xr:uid="{A9F37BA5-1C09-4282-80DA-4BB25919CF35}"/>
+    <hyperlink ref="D26" r:id="rId5" xr:uid="{5EFBF140-85EA-44D8-AB66-8559CC8F9FA6}"/>
+    <hyperlink ref="D27" r:id="rId6" xr:uid="{2956C5A9-C70B-4ED2-B816-21B2CDC2D1D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>

--- a/SD/FormDesign.xlsx
+++ b/SD/FormDesign.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nana\SE_2024_fall\git\ratingForm\SD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nana/Documents/NCU/SE/SE_2024_fall/SD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE230CFD-83CA-4028-A4FC-45C906B97E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F36A330-DB79-7243-AA32-8482E0D2EDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B524B075-65A8-4B41-B81D-ADC7B61B9386}"/>
+    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="17780" activeTab="2" xr2:uid="{B524B075-65A8-4B41-B81D-ADC7B61B9386}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="model" sheetId="3" r:id="rId2"/>
+    <sheet name="entity" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="128">
   <si>
     <t>學號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -383,6 +384,158 @@
   </si>
   <si>
     <t>Table: StudentEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>submitterId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>week</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>submitDateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>presenterId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>presentOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avgGrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stdDev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zScore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviewerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clazz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>presenter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Student</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviewer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormSubmission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PresenterGradeSummary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Presenter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormScoreRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reviewer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PresenterGradeSummary	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Enum)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk, fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -390,7 +543,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -447,8 +600,90 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="6"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="6"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="6"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -521,6 +756,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="35">
     <border>
@@ -885,7 +1150,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -913,10 +1178,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -925,19 +1187,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -1039,7 +1295,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1">
@@ -1066,19 +1322,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
@@ -1090,21 +1340,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
@@ -1123,19 +1364,61 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1535,180 +1818,152 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="17.25" thickBot="1">
-      <c r="B1" s="59" t="s">
+    <row r="1" spans="2:7" ht="16" thickBot="1">
+      <c r="B1" s="56" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="2:12">
-      <c r="B2" s="52" t="s">
+    <row r="2" spans="2:7">
+      <c r="B2" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="55" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="14"/>
-    </row>
-    <row r="4" spans="2:12" ht="17.25" thickBot="1">
-      <c r="B4" s="65" t="s">
+      <c r="G3" s="59"/>
+    </row>
+    <row r="4" spans="2:7" ht="16" thickBot="1">
+      <c r="B4" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-    </row>
-    <row r="5" spans="2:12" s="61" customFormat="1">
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-    </row>
-    <row r="6" spans="2:12" ht="17.25" thickBot="1">
-      <c r="B6" s="51" t="s">
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+    </row>
+    <row r="5" spans="2:7" s="57" customFormat="1"/>
+    <row r="6" spans="2:7" ht="16" thickBot="1">
+      <c r="B6" s="48" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="26" t="s">
+    <row r="7" spans="2:7">
+      <c r="B7" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="29" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="31" t="s">
+    <row r="9" spans="2:7">
+      <c r="B9" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="31" t="s">
+    <row r="10" spans="2:7">
+      <c r="B10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="31" t="s">
+    <row r="11" spans="2:7">
+      <c r="B11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="17.25" thickBot="1">
-      <c r="B12" s="33" t="s">
+    <row r="12" spans="2:7" ht="16" thickBot="1">
+      <c r="B12" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="2:12">
+    <row r="13" spans="2:7">
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="2:12">
+    </row>
+    <row r="15" spans="2:7">
       <c r="B15" s="2" t="s">
         <v>86</v>
       </c>
@@ -1722,108 +1977,108 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="83" t="s">
+    <row r="16" spans="2:7">
+      <c r="B16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="71" t="s">
+      <c r="D16" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="72" t="s">
+      <c r="E16" s="61" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D17" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="72" t="s">
+      <c r="E17" s="61" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="14" customFormat="1" ht="17.25" thickBot="1">
-      <c r="D18" s="25"/>
-      <c r="I18" s="14" t="s">
+    <row r="18" spans="1:9" ht="16" thickBot="1">
+      <c r="D18" s="22"/>
+      <c r="I18" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="28"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="27" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="79" t="s">
+      <c r="C21" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" s="74"/>
-    </row>
-    <row r="22" spans="1:9" ht="17.25" thickBot="1">
-      <c r="B22" s="81" t="s">
+      <c r="F21" s="66"/>
+    </row>
+    <row r="22" spans="1:9" ht="16" thickBot="1">
+      <c r="B22" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="31">
         <v>2</v>
       </c>
-      <c r="F22" s="75"/>
-    </row>
-    <row r="23" spans="1:9" s="61" customFormat="1"/>
+      <c r="F22" s="67"/>
+    </row>
+    <row r="23" spans="1:9" s="57" customFormat="1"/>
     <row r="24" spans="1:9">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="77" t="s">
+      <c r="C24" s="69" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1846,56 +2101,55 @@
       <c r="G25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="73" t="s">
+      <c r="D26" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="71" t="s">
+      <c r="E26" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="71" t="s">
+      <c r="F26" t="s">
         <v>69</v>
       </c>
-      <c r="G26" s="66" t="s">
+      <c r="G26" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="H26" s="79" t="s">
+      <c r="H26" s="71" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="73" t="s">
+      <c r="D27" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="71" t="s">
+      <c r="E27" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="71"/>
-      <c r="G27" s="66" t="s">
+      <c r="G27" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="H27" s="79" t="s">
+      <c r="H27" s="71" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="76" t="s">
+      <c r="A29" s="68" t="s">
         <v>72</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1921,58 +2175,58 @@
       <c r="G30" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="69" t="s">
+      <c r="C31" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="66" t="s">
+      <c r="D31" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="73" t="s">
+      <c r="E31" s="65" t="s">
         <v>62</v>
       </c>
       <c r="F31" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="66" t="s">
+      <c r="G31" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="79" t="s">
+      <c r="H31" s="71" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="B32" s="70" t="s">
+      <c r="B32" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="69" t="s">
+      <c r="C32" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="66" t="s">
+      <c r="D32" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="73" t="s">
+      <c r="E32" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="G32" s="66" t="s">
+      <c r="G32" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="H32" s="79" t="s">
+      <c r="H32" s="71" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="71" customFormat="1">
-      <c r="D33" s="72"/>
+    <row r="33" spans="1:13">
+      <c r="D33" s="61"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="76" t="s">
+      <c r="A34" s="68" t="s">
         <v>72</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -1995,96 +2249,86 @@
       <c r="F35" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
     </row>
     <row r="36" spans="1:13">
       <c r="B36" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="70" t="s">
+      <c r="C36" s="64" t="s">
         <v>25</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="71">
+      <c r="E36">
         <v>1</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
     </row>
     <row r="37" spans="1:13">
       <c r="B37" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="70" t="s">
+      <c r="C37" s="64" t="s">
         <v>25</v>
       </c>
       <c r="D37" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="71">
+      <c r="E37">
         <v>2</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
     </row>
     <row r="38" spans="1:13">
       <c r="B38" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="70" t="s">
+      <c r="C38" s="64" t="s">
         <v>26</v>
       </c>
       <c r="D38" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="71">
+      <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
     </row>
     <row r="39" spans="1:13">
       <c r="B39" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="70" t="s">
+      <c r="C39" s="64" t="s">
         <v>26</v>
       </c>
       <c r="D39" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="71">
+      <c r="E39">
         <v>2</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-    </row>
-    <row r="40" spans="1:13" s="61" customFormat="1">
-      <c r="D40" s="63"/>
-    </row>
-    <row r="41" spans="1:13" ht="15.95" customHeight="1" thickBot="1">
+    </row>
+    <row r="40" spans="1:13" s="57" customFormat="1">
+      <c r="D40" s="58"/>
+    </row>
+    <row r="41" spans="1:13" ht="16" customHeight="1" thickBot="1">
       <c r="B41" t="s">
         <v>41</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="76" t="s">
+      <c r="A42" s="68" t="s">
         <v>72</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -2102,194 +2346,191 @@
       <c r="L42" s="6"/>
       <c r="M42" s="7"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" ht="16">
       <c r="B43" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="62" t="s">
+      <c r="D43" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G43" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H43" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="I43" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J43" s="68" t="s">
+      <c r="J43" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="K43" s="10" t="s">
+      <c r="K43" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L43" s="10" t="s">
+      <c r="L43" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M43" s="11" t="s">
+      <c r="M43" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="62">
+      <c r="D44" s="57">
         <v>1</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F44" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G44">
         <v>90</v>
       </c>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="18"/>
-    </row>
-    <row r="45" spans="1:13" ht="17.25" thickBot="1">
-      <c r="B45" s="19" t="s">
+      <c r="J44" s="57"/>
+      <c r="K44" s="14"/>
+      <c r="M44" s="15"/>
+    </row>
+    <row r="45" spans="1:13" ht="16" thickBot="1">
+      <c r="B45" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="67">
+      <c r="D45" s="62">
         <v>1</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F45" s="21" t="s">
+      <c r="F45" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G45" s="21">
+      <c r="G45" s="18">
         <v>80</v>
       </c>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="67"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="24"/>
-    </row>
-    <row r="46" spans="1:13" s="61" customFormat="1"/>
-    <row r="47" spans="1:13" ht="17.25" thickBot="1">
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="21"/>
+    </row>
+    <row r="46" spans="1:13" s="57" customFormat="1"/>
+    <row r="47" spans="1:13" ht="16" thickBot="1">
       <c r="B47" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="40"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="37"/>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E49" s="42" t="s">
+      <c r="E49" s="39" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="14">
         <v>88.99</v>
       </c>
-      <c r="D50" s="79" t="s">
+      <c r="D50" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="E50" s="44">
+      <c r="E50" s="41">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="17.25" thickBot="1">
-      <c r="B51" s="45" t="s">
+    <row r="51" spans="2:5" ht="16" thickBot="1">
+      <c r="B51" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C51" s="46">
+      <c r="C51" s="43">
         <v>87.24</v>
       </c>
-      <c r="D51" s="79" t="s">
+      <c r="D51" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="E51" s="47">
+      <c r="E51" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="17.25" thickBot="1"/>
+    <row r="52" spans="2:5" ht="16" thickBot="1"/>
     <row r="53" spans="2:5">
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="39"/>
-      <c r="D53" s="40"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="37"/>
     </row>
     <row r="54" spans="2:5">
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="55" spans="2:5">
-      <c r="B55" s="48" t="s">
+      <c r="B55" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C55" s="16">
+      <c r="C55" s="13">
         <v>86</v>
       </c>
-      <c r="D55" s="79" t="s">
+      <c r="D55" s="71" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="2:5" ht="17.25" thickBot="1">
-      <c r="B56" s="49" t="s">
+    <row r="56" spans="2:5" ht="16" thickBot="1">
+      <c r="B56" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C56" s="50">
+      <c r="C56" s="47">
         <v>93</v>
       </c>
-      <c r="D56" s="79" t="s">
+      <c r="D56" s="71" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="2:5" s="61" customFormat="1"/>
+    <row r="57" spans="2:5" s="57" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2307,14 +2548,472 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02C371B-084D-5D41-8CD7-1152E0200037}">
-  <sheetPr codeName="工作表2"/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FD7BE1-FAC0-064F-905D-96376F7D388A}">
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="D1" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="75"/>
+      <c r="G1" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="80" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="89" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="76"/>
+      <c r="D9" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="77"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="78"/>
+      <c r="D17" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="78"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="79" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5364989-2265-A34F-A05D-538528A53891}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="E1" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="E9" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="E10" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="E11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="E12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="E13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="83"/>
+      <c r="B14" s="83"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="E17" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="84" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="A17:C17"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
